--- a/en/downloads/data-excel/3.9.1.1.xlsx
+++ b/en/downloads/data-excel/3.9.1.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="46">
   <si>
     <t>-</t>
   </si>
@@ -161,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +252,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -310,7 +316,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -403,6 +409,21 @@
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -712,9 +733,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -723,7 +746,7 @@
     <col min="5" max="5" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="39.75" customHeight="1">
+    <row r="1" spans="1:17" ht="39.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -747,7 +770,7 @@
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:16" ht="17.25" customHeight="1">
+    <row r="2" spans="1:17" ht="17.25" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
@@ -771,7 +794,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -789,7 +812,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1">
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -838,8 +861,11 @@
       <c r="P4" s="8">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q4" s="8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
@@ -888,8 +914,11 @@
       <c r="P5" s="18">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q5" s="33">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="19" t="s">
         <v>35</v>
       </c>
@@ -938,8 +967,11 @@
       <c r="P6" s="32">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q6" s="34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="19" t="s">
         <v>36</v>
       </c>
@@ -988,8 +1020,11 @@
       <c r="P7" s="32">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q7" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="19" t="s">
         <v>16</v>
       </c>
@@ -1038,8 +1073,11 @@
       <c r="P8" s="23">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q8" s="35">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="19" t="s">
         <v>35</v>
       </c>
@@ -1088,8 +1126,11 @@
       <c r="P9" s="23">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q9" s="35">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>36</v>
       </c>
@@ -1138,8 +1179,11 @@
       <c r="P10" s="23">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q10" s="35">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>18</v>
       </c>
@@ -1188,8 +1232,11 @@
       <c r="P11" s="23">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q11" s="35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>35</v>
       </c>
@@ -1238,8 +1285,11 @@
       <c r="P12" s="23">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q12" s="35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="19" t="s">
         <v>36</v>
       </c>
@@ -1288,8 +1338,11 @@
       <c r="P13" s="23">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q13" s="35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="19" t="s">
         <v>19</v>
       </c>
@@ -1338,8 +1391,11 @@
       <c r="P14" s="23">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q14" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>35</v>
       </c>
@@ -1388,8 +1444,11 @@
       <c r="P15" s="23">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q15" s="35">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="19" t="s">
         <v>36</v>
       </c>
@@ -1438,8 +1497,11 @@
       <c r="P16" s="23">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q16" s="35">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="19" t="s">
         <v>20</v>
       </c>
@@ -1488,8 +1550,11 @@
       <c r="P17" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q17" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="19" t="s">
         <v>35</v>
       </c>
@@ -1538,8 +1603,11 @@
       <c r="P18" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q18" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="19" t="s">
         <v>36</v>
       </c>
@@ -1588,8 +1656,11 @@
       <c r="P19" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q19" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="19" t="s">
         <v>22</v>
       </c>
@@ -1638,8 +1709,11 @@
       <c r="P20" s="23">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q20" s="35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="19" t="s">
         <v>35</v>
       </c>
@@ -1688,8 +1762,11 @@
       <c r="P21" s="23">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q21" s="35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="19" t="s">
         <v>36</v>
       </c>
@@ -1738,8 +1815,11 @@
       <c r="P22" s="23">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q22" s="35">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>24</v>
       </c>
@@ -1788,8 +1868,11 @@
       <c r="P23" s="23">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q23" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>35</v>
       </c>
@@ -1838,8 +1921,11 @@
       <c r="P24" s="22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q24" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="19" t="s">
         <v>36</v>
       </c>
@@ -1888,8 +1974,11 @@
       <c r="P25" s="23">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q25" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="19" t="s">
         <v>26</v>
       </c>
@@ -1938,8 +2027,11 @@
       <c r="P26" s="23">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q26" s="35">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="19" t="s">
         <v>35</v>
       </c>
@@ -1988,8 +2080,11 @@
       <c r="P27" s="23">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q27" s="35">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="19" t="s">
         <v>36</v>
       </c>
@@ -2038,8 +2133,11 @@
       <c r="P28" s="23">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q28" s="35">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="19" t="s">
         <v>28</v>
       </c>
@@ -2088,8 +2186,11 @@
       <c r="P29" s="23">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q29" s="35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="19" t="s">
         <v>35</v>
       </c>
@@ -2138,8 +2239,11 @@
       <c r="P30" s="23">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q30" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="19" t="s">
         <v>36</v>
       </c>
@@ -2188,8 +2292,11 @@
       <c r="P31" s="23">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="Q31" s="35">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="19" t="s">
         <v>31</v>
       </c>
@@ -2238,8 +2345,11 @@
       <c r="P32" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="Q32" s="35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="19" t="s">
         <v>35</v>
       </c>
@@ -2288,8 +2398,11 @@
       <c r="P33" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="Q33" s="35">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A34" s="26" t="s">
         <v>36</v>
       </c>
@@ -2337,6 +2450,9 @@
       </c>
       <c r="P34" s="30">
         <v>2</v>
+      </c>
+      <c r="Q34" s="37" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/en/downloads/data-excel/3.9.1.1.xlsx
+++ b/en/downloads/data-excel/3.9.1.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="46">
   <si>
     <t>-</t>
   </si>
@@ -733,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -746,7 +746,7 @@
     <col min="5" max="5" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="39.75" customHeight="1">
+    <row r="1" spans="1:18" ht="39.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:17" ht="17.25" customHeight="1">
+    <row r="2" spans="1:18" ht="17.25" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
@@ -794,7 +794,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -812,7 +812,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1">
+    <row r="4" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -864,8 +864,11 @@
       <c r="Q4" s="8">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R4" s="8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
@@ -917,8 +920,11 @@
       <c r="Q5" s="33">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R5" s="33">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="19" t="s">
         <v>35</v>
       </c>
@@ -970,8 +976,11 @@
       <c r="Q6" s="34">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R6" s="34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="19" t="s">
         <v>36</v>
       </c>
@@ -1023,8 +1032,11 @@
       <c r="Q7" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R7" s="34">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="19" t="s">
         <v>16</v>
       </c>
@@ -1076,8 +1088,11 @@
       <c r="Q8" s="35">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R8" s="35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="19" t="s">
         <v>35</v>
       </c>
@@ -1129,8 +1144,11 @@
       <c r="Q9" s="35">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R9" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>36</v>
       </c>
@@ -1182,8 +1200,11 @@
       <c r="Q10" s="35">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R10" s="35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>18</v>
       </c>
@@ -1235,8 +1256,11 @@
       <c r="Q11" s="35">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R11" s="35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>35</v>
       </c>
@@ -1288,8 +1312,11 @@
       <c r="Q12" s="35">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R12" s="35">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="19" t="s">
         <v>36</v>
       </c>
@@ -1341,8 +1368,11 @@
       <c r="Q13" s="35">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R13" s="35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="19" t="s">
         <v>19</v>
       </c>
@@ -1394,8 +1424,11 @@
       <c r="Q14" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R14" s="35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>35</v>
       </c>
@@ -1447,8 +1480,11 @@
       <c r="Q15" s="35">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R15" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="19" t="s">
         <v>36</v>
       </c>
@@ -1500,8 +1536,11 @@
       <c r="Q16" s="35">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R16" s="35">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="19" t="s">
         <v>20</v>
       </c>
@@ -1553,8 +1592,11 @@
       <c r="Q17" s="35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R17" s="35">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="19" t="s">
         <v>35</v>
       </c>
@@ -1606,8 +1648,11 @@
       <c r="Q18" s="35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R18" s="35">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="19" t="s">
         <v>36</v>
       </c>
@@ -1659,8 +1704,11 @@
       <c r="Q19" s="35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R19" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="19" t="s">
         <v>22</v>
       </c>
@@ -1712,8 +1760,11 @@
       <c r="Q20" s="35">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R20" s="35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="19" t="s">
         <v>35</v>
       </c>
@@ -1765,8 +1816,11 @@
       <c r="Q21" s="35">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R21" s="35">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="19" t="s">
         <v>36</v>
       </c>
@@ -1818,8 +1872,11 @@
       <c r="Q22" s="35">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R22" s="35">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>24</v>
       </c>
@@ -1871,8 +1928,11 @@
       <c r="Q23" s="35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R23" s="35">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>35</v>
       </c>
@@ -1924,8 +1984,11 @@
       <c r="Q24" s="36" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R24" s="36">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="19" t="s">
         <v>36</v>
       </c>
@@ -1977,8 +2040,11 @@
       <c r="Q25" s="35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R25" s="35">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="19" t="s">
         <v>26</v>
       </c>
@@ -2030,8 +2096,11 @@
       <c r="Q26" s="35">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R26" s="35">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="19" t="s">
         <v>35</v>
       </c>
@@ -2083,8 +2152,11 @@
       <c r="Q27" s="35">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R27" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="19" t="s">
         <v>36</v>
       </c>
@@ -2136,8 +2208,11 @@
       <c r="Q28" s="35">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R28" s="35">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="19" t="s">
         <v>28</v>
       </c>
@@ -2189,8 +2264,11 @@
       <c r="Q29" s="35">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R29" s="35">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="19" t="s">
         <v>35</v>
       </c>
@@ -2242,8 +2320,11 @@
       <c r="Q30" s="35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R30" s="35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="19" t="s">
         <v>36</v>
       </c>
@@ -2295,8 +2376,11 @@
       <c r="Q31" s="35">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="R31" s="35">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="19" t="s">
         <v>31</v>
       </c>
@@ -2348,8 +2432,11 @@
       <c r="Q32" s="35">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="R32" s="35">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="19" t="s">
         <v>35</v>
       </c>
@@ -2401,8 +2488,11 @@
       <c r="Q33" s="35">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="R33" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A34" s="26" t="s">
         <v>36</v>
       </c>
@@ -2453,6 +2543,9 @@
       </c>
       <c r="Q34" s="37" t="s">
         <v>0</v>
+      </c>
+      <c r="R34" s="37">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/en/downloads/data-excel/3.9.1.1.xlsx
+++ b/en/downloads/data-excel/3.9.1.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="46">
   <si>
     <t>-</t>
   </si>
@@ -733,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -746,7 +746,7 @@
     <col min="5" max="5" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="39.75" customHeight="1">
+    <row r="1" spans="1:19" ht="39.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:18" ht="17.25" customHeight="1">
+    <row r="2" spans="1:19" ht="17.25" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
@@ -794,7 +794,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -812,7 +812,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -867,8 +867,11 @@
       <c r="R4" s="8">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S4" s="8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
@@ -923,8 +926,11 @@
       <c r="R5" s="33">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S5" s="33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="19" t="s">
         <v>35</v>
       </c>
@@ -979,8 +985,11 @@
       <c r="R6" s="34">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S6" s="34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="19" t="s">
         <v>36</v>
       </c>
@@ -1035,8 +1044,11 @@
       <c r="R7" s="34">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S7" s="34">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="19" t="s">
         <v>16</v>
       </c>
@@ -1091,8 +1103,11 @@
       <c r="R8" s="35">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S8" s="35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="19" t="s">
         <v>35</v>
       </c>
@@ -1147,8 +1162,11 @@
       <c r="R9" s="35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S9" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>36</v>
       </c>
@@ -1203,8 +1221,11 @@
       <c r="R10" s="35">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S10" s="35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>18</v>
       </c>
@@ -1259,8 +1280,11 @@
       <c r="R11" s="35">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S11" s="35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>35</v>
       </c>
@@ -1315,8 +1339,11 @@
       <c r="R12" s="35">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S12" s="35">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="19" t="s">
         <v>36</v>
       </c>
@@ -1371,8 +1398,11 @@
       <c r="R13" s="35">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S13" s="35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="19" t="s">
         <v>19</v>
       </c>
@@ -1427,8 +1457,11 @@
       <c r="R14" s="35">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S14" s="35">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>35</v>
       </c>
@@ -1483,8 +1516,11 @@
       <c r="R15" s="35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S15" s="35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="19" t="s">
         <v>36</v>
       </c>
@@ -1539,8 +1575,11 @@
       <c r="R16" s="35">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S16" s="35">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="19" t="s">
         <v>20</v>
       </c>
@@ -1595,8 +1634,11 @@
       <c r="R17" s="35">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S17" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="19" t="s">
         <v>35</v>
       </c>
@@ -1651,8 +1693,11 @@
       <c r="R18" s="35">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S18" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="19" t="s">
         <v>36</v>
       </c>
@@ -1707,8 +1752,11 @@
       <c r="R19" s="35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S19" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="19" t="s">
         <v>22</v>
       </c>
@@ -1763,8 +1811,11 @@
       <c r="R20" s="35">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S20" s="35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="19" t="s">
         <v>35</v>
       </c>
@@ -1819,8 +1870,11 @@
       <c r="R21" s="35">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S21" s="35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="19" t="s">
         <v>36</v>
       </c>
@@ -1875,8 +1929,11 @@
       <c r="R22" s="35">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S22" s="35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>24</v>
       </c>
@@ -1931,8 +1988,11 @@
       <c r="R23" s="35">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S23" s="35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>35</v>
       </c>
@@ -1987,8 +2047,11 @@
       <c r="R24" s="36">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S24" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="19" t="s">
         <v>36</v>
       </c>
@@ -2043,8 +2106,11 @@
       <c r="R25" s="35">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S25" s="35">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="19" t="s">
         <v>26</v>
       </c>
@@ -2099,8 +2165,11 @@
       <c r="R26" s="35">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S26" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="19" t="s">
         <v>35</v>
       </c>
@@ -2155,8 +2224,11 @@
       <c r="R27" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S27" s="35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="19" t="s">
         <v>36</v>
       </c>
@@ -2211,8 +2283,11 @@
       <c r="R28" s="35">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S28" s="35">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="19" t="s">
         <v>28</v>
       </c>
@@ -2267,8 +2342,11 @@
       <c r="R29" s="35">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S29" s="35">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="19" t="s">
         <v>35</v>
       </c>
@@ -2323,8 +2401,11 @@
       <c r="R30" s="35">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S30" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="19" t="s">
         <v>36</v>
       </c>
@@ -2379,8 +2460,11 @@
       <c r="R31" s="35">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="S31" s="35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="19" t="s">
         <v>31</v>
       </c>
@@ -2435,8 +2519,11 @@
       <c r="R32" s="35">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="S32" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="19" t="s">
         <v>35</v>
       </c>
@@ -2491,8 +2578,11 @@
       <c r="R33" s="35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="S33" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A34" s="26" t="s">
         <v>36</v>
       </c>
@@ -2546,6 +2636,9 @@
       </c>
       <c r="R34" s="37">
         <v>0.6</v>
+      </c>
+      <c r="S34" s="37" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
